--- a/data/case1/2/P1_13.xlsx
+++ b/data/case1/2/P1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.086796485556021707</v>
+        <v>0.073001804238757018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999999073599497</v>
+        <v>-0.0099999996804811531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999990794922269</v>
+        <v>-0.0089999996841818586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398734392190406</v>
+        <v>0.28399386409065741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991078711901</v>
+        <v>-0.0059999996942483591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990831194339</v>
+        <v>-0.0059999996827073687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999894286475</v>
+        <v>-0.019999999621591158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998938803998</v>
+        <v>0.015865885145244896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999999074776774</v>
+        <v>-0.0059999996736923578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999990733814457</v>
+        <v>-0.0059999996685533574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999990881713359</v>
+        <v>-0.0044999996743229076</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.018997832267573678</v>
+        <v>-0.0059999996664918953</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990692949368</v>
+        <v>-0.0059999996609834128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999009118412</v>
+        <v>-0.01199999963357623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990686616655</v>
+        <v>-0.0059999996581412418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999990697447991</v>
+        <v>-0.0059999996569790603</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999990736585573</v>
+        <v>-0.005999999655483812</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.020808804963213134</v>
+        <v>-0.0089999996422251982</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999990828957266</v>
+        <v>-0.0089999996844243313</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999990751241654</v>
+        <v>-0.024772725637410176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999990740254887</v>
+        <v>-0.0089999996794372095</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999990733655721</v>
+        <v>-0.008999999679126347</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.087650389696346309</v>
+        <v>-0.0089999996814045247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998724595144</v>
+        <v>-0.041999999534531263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998717731302</v>
+        <v>-0.04199999953206035</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999990813821569</v>
+        <v>-0.0059999996813928647</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999990786812063</v>
+        <v>-0.0059999996796884503</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990642198853</v>
+        <v>-0.015363491073277835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998996389039</v>
+        <v>-0.011999999641648884</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.01999999891339499</v>
+        <v>-0.019999999604948915</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0033732117868563449</v>
+        <v>-0.014999999623217519</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998897703875</v>
+        <v>-0.020999999596855723</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990459598251</v>
+        <v>-0.0059999996611930229</v>
       </c>
     </row>
   </sheetData>
